--- a/mlogistic_weights_0.xlsx
+++ b/mlogistic_weights_0.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -51,6 +52,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -96,12 +104,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -124,21 +136,21 @@
   </sheetPr>
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q35" activeCellId="0" sqref="Q35:AQ61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="3.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="4.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>-0.1</v>
@@ -180,10 +192,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.1</v>
@@ -234,10 +246,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.1</v>
@@ -288,10 +300,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.1</v>
@@ -342,10 +354,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-0.1</v>
@@ -396,10 +408,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-0.1</v>
@@ -450,10 +462,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-0.1</v>
@@ -504,10 +516,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-0.1</v>
@@ -558,10 +570,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-0.1</v>
@@ -612,10 +624,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-0.1</v>
@@ -666,10 +678,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.1</v>
@@ -720,10 +732,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.1</v>
@@ -774,10 +786,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.1</v>
@@ -828,10 +840,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0.1</v>
@@ -882,10 +894,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.1</v>
@@ -936,10 +948,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.1</v>
@@ -990,10 +1002,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.1</v>
@@ -1044,10 +1056,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.1</v>
@@ -1098,10 +1110,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.1</v>
@@ -1152,10 +1164,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.1</v>
@@ -1206,10 +1218,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>-0.1</v>
@@ -1260,10 +1272,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>-0.1</v>
@@ -1314,10 +1326,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>-0.1</v>
@@ -1368,10 +1380,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>-0.1</v>
@@ -1422,10 +1434,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>-0.1</v>
@@ -1476,10 +1488,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.1</v>
@@ -1530,10 +1542,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.1</v>
@@ -1591,4 +1603,436 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="4.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <f aca="false">A1+B1*C1</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">A2+B2*C2</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">A3+B3*C3</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">A4+B4*C4</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">A5+B5*C5</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">A6+B6*C6</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">A7+B7*C7</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">A8+B8*C8</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">A9+B9*C9</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">A10+B10*C10</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">A11+B11*C11</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">A12+B12*C12</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">A13+B13*C13</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">A14+B14*C14</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>0.799999999999999</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">A15+B15*C15</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>0.599999999999999</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">A16+B16*C16</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>0.399999999999999</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">A17+B17*C17</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>0.199999999999999</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">A18+B18*C18</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>-1.55431223447522E-015</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">A19+B19*C19</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>-0.200000000000002</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">A20+B20*C20</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>-0.400000000000002</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">A21+B21*C21</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>-0.600000000000002</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">A22+B22*C22</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>-0.800000000000003</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">A23+B23*C23</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">A24+B24*C24</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <f aca="false">A25+B25*C25</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">A26+B26*C26</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">A27+B27*C27</f>
+        <v>3.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/mlogistic_weights_0.xlsx
+++ b/mlogistic_weights_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,12 +20,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-col</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -61,6 +102,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,10 +125,24 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -104,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -114,6 +183,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,7 +217,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -620,73 +701,903 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="4.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="5.96"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="0" t="n">
+        <f aca="false">SUM(E1:H1)</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="0" t="n">
+        <f aca="false">SUM(E2:H2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="0" t="n">
+        <f aca="false">SUM(E3:H3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="0" t="n">
+        <f aca="false">SUM(E4:H4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="0" t="n">
+        <f aca="false">SUM(E5:H5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="0" t="n">
+        <f aca="false">SUM(E6:H6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="0" t="n">
+        <f aca="false">SUM(E7:H7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="0" t="n">
+        <f aca="false">SUM(E8:H8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="0" t="n">
+        <f aca="false">SUM(E9:H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="0" t="n">
+        <f aca="false">SUM(E10:H10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="0" t="n">
+        <f aca="false">SUM(E11:H11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="0" t="n">
+        <f aca="false">SUM(E12:H12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="0" t="n">
+        <f aca="false">SUM(E13:H13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="0" t="n">
+        <f aca="false">SUM(E14:H14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="0" t="n">
+        <f aca="false">SUM(E15:H15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="0" t="n">
+        <f aca="false">SUM(E16:H16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="0" t="n">
+        <f aca="false">SUM(E17:H17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="0" t="n">
+        <f aca="false">SUM(E18:H18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="0" t="n">
+        <f aca="false">SUM(E19:H19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM(E20:H20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(E21:H21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="0" t="n">
+        <f aca="false">SUM(E22:H22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(E23:H23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="0" t="n">
+        <f aca="false">SUM(E24:H24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="0" t="n">
+        <f aca="false">SUM(E25:H25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="0" t="n">
+        <f aca="false">SUM(E26:H26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="0" t="n">
+        <f aca="false">SUM(E27:H27)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:C27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF4D3CE1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
